--- a/biology/Zoologie/Icarops/Icarops.xlsx
+++ b/biology/Zoologie/Icarops/Icarops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Icarops est un genre fossile de chauve-souris de la famille des Mystacinidae qui a vécu en Australie de l'Oligocène supérieur au Miocène moyen entre 26 et 12 Ma (millions d'années)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Icarops est un genre fossile de chauve-souris de la famille des Mystacinidae qui a vécu en Australie de l'Oligocène supérieur au Miocène moyen entre 26 et 12 Ma (millions d'années),.
 Les fossiles d'Icarops ont été découverts sur le site fossilifère à mammifères de Riversleigh dans le Nord-Ouest du Queensland, et sur celui de  Bullock Creek dans le Territoire du Nord.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Icarops fait référence à Icare, le personnage de la mythologie grecque, qui s’envola vers le soleil. Ceci rappelle que les chauve-souris de la famille des Mystacinidae, après avoir vécu en Australie de l'Oligocène supérieur au Miocène moyen entre 26 et 12 Ma (millions d'années) sont retrouvées en Nouvelle-Zélande au moins depuis le Miocène inférieur avec les genres Vulcanops et Icarops, il y a environ 20 Ma, jusqu'à nos jours[2]. Le mot du grec ancien ὤψ (ops) signifiant « visage  », est un suffixe fréquemment utilisé pour nommer les chauve-souris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Icarops fait référence à Icare, le personnage de la mythologie grecque, qui s’envola vers le soleil. Ceci rappelle que les chauve-souris de la famille des Mystacinidae, après avoir vécu en Australie de l'Oligocène supérieur au Miocène moyen entre 26 et 12 Ma (millions d'années) sont retrouvées en Nouvelle-Zélande au moins depuis le Miocène inférieur avec les genres Vulcanops et Icarops, il y a environ 20 Ma, jusqu'à nos jours. Le mot du grec ancien ὤψ (ops) signifiant « visage  », est un suffixe fréquemment utilisé pour nommer les chauve-souris.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trois espèces, toutes australiennes, ont été décrites :
-† Icarops aenae Hand et al., 2009[3]
-† Icarops breviceps Hand et al., 1998[1]
-† Icarops paradox Hand et al., 2001[4]</t>
+† Icarops aenae Hand et al., 2009
+† Icarops breviceps Hand et al., 1998
+† Icarops paradox Hand et al., 2001</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Icarops est un genre de mystacinidés de petite taille avec un poids estimé à 8,5 grammes pour I. paradox, le plus petit représentant de la famille, et 17,8 grammes pour I. aenae. Ces tailles sont à comparer avec celles des deux plus grandes espèces de la famille : Vulcanops jennyworthyae (42,6 grammes) et Mystacina miocenalis (39,3 grammes)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Icarops est un genre de mystacinidés de petite taille avec un poids estimé à 8,5 grammes pour I. paradox, le plus petit représentant de la famille, et 17,8 grammes pour I. aenae. Ces tailles sont à comparer avec celles des deux plus grandes espèces de la famille : Vulcanops jennyworthyae (42,6 grammes) et Mystacina miocenalis (39,3 grammes).
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar des deux espèces connues historiquement appartenant au genre Mystacina, Icarops était un genre de chauve-souris dites « semi-terrestres », partageant leur temps et leur quête de nourriture entre vol et la marche à quatre pattes au sol, où elles fouillent sous la litière forestière (d'où leur autre surnom de « chauve-souris fouisseuses » pour la famille). Leur alimentation est ainsi très diversifiée : insectes, dont des wetas, araignées, fruits, fleurs et nectar[5].
-La forme des dents d'Icarops indique cependant un régime alimentaire plus insectivore que chez les autres mystacinidés[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar des deux espèces connues historiquement appartenant au genre Mystacina, Icarops était un genre de chauve-souris dites « semi-terrestres », partageant leur temps et leur quête de nourriture entre vol et la marche à quatre pattes au sol, où elles fouillent sous la litière forestière (d'où leur autre surnom de « chauve-souris fouisseuses » pour la famille). Leur alimentation est ainsi très diversifiée : insectes, dont des wetas, araignées, fruits, fleurs et nectar.
+La forme des dents d'Icarops indique cependant un régime alimentaire plus insectivore que chez les autres mystacinidés.
 </t>
         </is>
       </c>
@@ -639,10 +659,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Icarops a été créé en 1998 par Suzanne Joan Hand (d), Peter F. Murray (d), 
-Dirk Megirian (d), Michael Archer et Henk Godthelp (d)[7].
+Dirk Megirian (d), Michael Archer et Henk Godthelp (d).
 </t>
         </is>
       </c>
